--- a/biology/Zoologie/Chasmosaurus/Chasmosaurus.xlsx
+++ b/biology/Zoologie/Chasmosaurus/Chasmosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chasmosaurus (« lézard à ouverture ») est un genre éteint de dinosaures cératopsiens du Crétacé supérieur qui a vécu au Canada. 
 </t>
@@ -511,7 +523,9 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers fossiles de chasmosaures ont été retrouvés en 1902, mais à l'époque, ils ont été identifiés comme appartenant à Monoclonius, un cératopsien similaire. Cependant, en 1913, Charles Mortram Sternberg et ses fils ont découvert quelques squelettes complets de l'animal aujourd'hui connu sous le nom de chasmosaure en Alberta, Canada. Ils furent enfin décrits en 1914 par Lawrence M. Lambe de la Commission géologique du Canada. Depuis ce jour, plusieurs crânes supplémentaires ont été retrouvés. Ces crânes présentent quelques dissemblances qui seront évoquées plus loin.
 </t>
@@ -542,15 +556,13 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce originale de chasmosaure décrite par Lambe, C. belli, a été rejointe la même année par C. canadensis. En 1940, l'espèce C. russelli a été ajoutée par Sternberg, puis, en 1989, Lehman décrit C. mariscalensis.
-L'espèce la plus récemment décrite est C. irvinensis, découverte dans les couches supérieures, datées du Campanien, de la formation de Dinosaur Park en Alberta. Cependant, en 2010, cette espèce a été rattachée à un nouveau genre Vagaceratops irvinensis[1].
-Liste des espèces
-C. belli
-C. canadensis
-C. mariscalensis
-C. russelli</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce originale de chasmosaure décrite par Lambe, C. belli, a été rejointe la même année par C. canadensis. En 1940, l'espèce C. russelli a été ajoutée par Sternberg, puis, en 1989, Lehman décrit C. mariscalensis.
+L'espèce la plus récemment décrite est C. irvinensis, découverte dans les couches supérieures, datées du Campanien, de la formation de Dinosaur Park en Alberta. Cependant, en 2010, cette espèce a été rattachée à un nouveau genre Vagaceratops irvinensis.
+</t>
         </is>
       </c>
     </row>
@@ -575,10 +587,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C. belli
+C. canadensis
+C. mariscalensis
+C. russelli</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chasmosaurus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chasmosaurus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesurant 6 mètres de long, 2 mètres de haut et pesant 1,5 tonne, Chasmosaurus était un cératopsidé de taille moyenne.
 Traditionnellement, les cératopsiens sont subdivisés en deux catégories par les taxonomistes; ceux avec de petites collerettes (centrosaurinés) et ceux avec de grosses (chasmosaurinés). Chasmosaurus a donné son nom à la seconde catégorie. En plus de ces grosses collerettes, ces cératopsiens possèdent généralement une tête et des mâchoires plus longues, et certains scientifiques croient qu'ils étaient plus sélectifs quant aux plantes qu'ils ingéraient. Les longues collerettes sont une évolution plutôt tardive chez les dinosaures, il y a de cela 76 à 70 millions d'années. La collerette a souvent été décrite comme étant « en forme de cœur », considérant le fait que sa structure osseuse décrit deux larges « boucles » à partir d'un os central.
